--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuse/Desktop/PhD/Lavori/5 - RecSys benchmark co2 emission rec alg/codice/CarbonRecommenderRecSys23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{609746A2-750E-594E-B2DA-F161067B75A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7B8F6-1CFA-AF48-A878-939657BFF041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{EAFF4662-7336-CA41-A4FF-67D761CD1356}"/>
+    <workbookView xWindow="7240" yWindow="500" windowWidth="31160" windowHeight="19880" xr2:uid="{EAFF4662-7336-CA41-A4FF-67D761CD1356}"/>
   </bookViews>
   <sheets>
     <sheet name="movielens" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="186">
   <si>
     <t>timestamp</t>
   </si>
@@ -52,9 +52,6 @@
     <t>duration</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
     <t>emissions_rate</t>
   </si>
   <si>
@@ -593,12 +590,21 @@
   </si>
   <si>
     <t>782be4b6-4d8c-474b-b3d1-64ce97111d14</t>
+  </si>
+  <si>
+    <t>emissions (g) global</t>
+  </si>
+  <si>
+    <t>emission (g) global</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -628,9 +634,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -948,12 +955,13 @@
   <dimension ref="B3:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1048576"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -971,99 +979,99 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>19</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>20</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>21</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>27</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
       </c>
       <c r="E4">
         <v>20.853190422058098</v>
       </c>
       <c r="F4">
-        <v>1.3315475695205301E-4</v>
+        <v>0.29834202599999998</v>
       </c>
       <c r="G4">
-        <v>6.3853422069749402E-3</v>
+        <v>1.4306780999999999E-2</v>
       </c>
       <c r="H4">
         <v>33.071878620682</v>
@@ -1087,16 +1095,16 @@
         <v>6.2808847618893004E-4</v>
       </c>
       <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
         <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
       </c>
       <c r="Q4">
         <v>8</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4">
         <v>7.0900000000000005E-2</v>
@@ -1137,22 +1145,22 @@
     </row>
     <row r="5" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
       </c>
       <c r="E5">
         <v>50.885934591293299</v>
       </c>
       <c r="F5">
-        <v>3.2206720079277498E-4</v>
+        <v>0.72161283200000004</v>
       </c>
       <c r="G5">
-        <v>6.32919889119776E-3</v>
+        <v>1.4180988E-2</v>
       </c>
       <c r="H5">
         <v>30.690834650387199</v>
@@ -1176,16 +1184,16 @@
         <v>1.5191849093998801E-3</v>
       </c>
       <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
         <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
       </c>
       <c r="Q5">
         <v>8</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5">
         <v>0.14910000000000001</v>
@@ -1226,22 +1234,22 @@
     </row>
     <row r="6" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>93</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
       </c>
       <c r="E6">
         <v>103.35499882697999</v>
       </c>
       <c r="F6">
-        <v>6.4000748960782103E-4</v>
+        <v>1.4339790450000001</v>
       </c>
       <c r="G6">
-        <v>6.1923225472549602E-3</v>
+        <v>1.3874308E-2</v>
       </c>
       <c r="H6">
         <v>29.926719997217202</v>
@@ -1265,16 +1273,16 @@
         <v>3.01890325286708E-3</v>
       </c>
       <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
       </c>
       <c r="Q6">
         <v>8</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6">
         <v>0.15140000000000001</v>
@@ -1315,22 +1323,22 @@
     </row>
     <row r="7" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
       </c>
       <c r="E7">
         <v>390.98692202567997</v>
       </c>
       <c r="F7">
-        <v>3.9936226184565599E-3</v>
+        <v>8.9479752060000006</v>
       </c>
       <c r="G7">
-        <v>1.02142102292471E-2</v>
+        <v>2.2885612999999999E-2</v>
       </c>
       <c r="H7">
         <v>29.309822132253402</v>
@@ -1354,16 +1362,16 @@
         <v>1.8837842539889401E-2</v>
       </c>
       <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
         <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
       </c>
       <c r="Q7">
         <v>8</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7">
         <v>0.13830000000000001</v>
@@ -1404,22 +1412,22 @@
     </row>
     <row r="8" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
       </c>
       <c r="E8">
         <v>3394.2575128078402</v>
       </c>
       <c r="F8">
-        <v>3.7501585136197398E-2</v>
+        <v>84.024778019999999</v>
       </c>
       <c r="G8">
-        <v>1.10485385963467E-2</v>
+        <v>2.4754979999999999E-2</v>
       </c>
       <c r="H8">
         <v>17.223353172455599</v>
@@ -1443,16 +1451,16 @@
         <v>0.17689426951036499</v>
       </c>
       <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
         <v>32</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
       </c>
       <c r="Q8">
         <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8">
         <v>7.1999999999999995E-2</v>
@@ -1493,22 +1501,22 @@
     </row>
     <row r="9" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
         <v>101</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" t="s">
-        <v>103</v>
       </c>
       <c r="E9">
         <v>9578.98705101013</v>
       </c>
       <c r="F9">
-        <v>0.11589827856884399</v>
+        <v>259.67774680000002</v>
       </c>
       <c r="G9">
-        <v>1.20992207163097E-2</v>
+        <v>2.7109102999999999E-2</v>
       </c>
       <c r="H9">
         <v>16.4793680243178</v>
@@ -1532,16 +1540,16 @@
         <v>0.54668999324926804</v>
       </c>
       <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
         <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9">
         <v>1.9E-2</v>
@@ -1582,22 +1590,22 @@
     </row>
     <row r="10" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>106</v>
       </c>
       <c r="E10">
         <v>263.91316366195599</v>
       </c>
       <c r="F10">
-        <v>9.1220731538870295E-4</v>
+        <v>2.04386073</v>
       </c>
       <c r="G10">
-        <v>3.45646766054132E-3</v>
+        <v>7.7444439999999996E-3</v>
       </c>
       <c r="H10">
         <v>25.136772009384899</v>
@@ -1621,16 +1629,16 @@
         <v>4.3028646952297297E-3</v>
       </c>
       <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
         <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
       </c>
       <c r="Q10">
         <v>8</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10">
         <v>0.17649999999999999</v>
@@ -1671,22 +1679,22 @@
     </row>
     <row r="11" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>108</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
       </c>
       <c r="E11">
         <v>252.48847222328101</v>
       </c>
       <c r="F11">
-        <v>1.6405279781563E-3</v>
+        <v>3.675711272</v>
       </c>
       <c r="G11">
-        <v>6.4974371451918898E-3</v>
+        <v>1.4557937E-2</v>
       </c>
       <c r="H11">
         <v>29.984604449295301</v>
@@ -1710,16 +1718,16 @@
         <v>7.7383395196052003E-3</v>
       </c>
       <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
         <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
       </c>
       <c r="Q11">
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11">
         <v>0.112</v>
@@ -1760,22 +1768,22 @@
     </row>
     <row r="12" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
         <v>110</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
       </c>
       <c r="E12">
         <v>37.401194810867302</v>
       </c>
       <c r="F12">
-        <v>2.5591209481200998E-4</v>
+        <v>0.57338794800000004</v>
       </c>
       <c r="G12">
-        <v>6.8423507886879696E-3</v>
+        <v>1.5330738999999999E-2</v>
       </c>
       <c r="H12">
         <v>31.446552918178401</v>
@@ -1799,16 +1807,16 @@
         <v>1.20713252269816E-3</v>
       </c>
       <c r="O12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
         <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>33</v>
       </c>
       <c r="Q12">
         <v>8</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12">
         <v>0.1517</v>
@@ -1849,22 +1857,22 @@
     </row>
     <row r="13" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
         <v>113</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
       </c>
       <c r="E13">
         <v>38.253659963607703</v>
       </c>
       <c r="F13">
-        <v>2.8155534669886402E-4</v>
+        <v>0.63084334799999997</v>
       </c>
       <c r="G13">
-        <v>7.3602198316898102E-3</v>
+        <v>1.6491058999999999E-2</v>
       </c>
       <c r="H13">
         <v>20.593233143224001</v>
@@ -1888,16 +1896,16 @@
         <v>1.3280912580135101E-3</v>
       </c>
       <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
         <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>33</v>
       </c>
       <c r="Q13">
         <v>8</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13">
         <v>0.14990000000000001</v>
@@ -1938,22 +1946,22 @@
     </row>
     <row r="14" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
       </c>
       <c r="E14">
         <v>1243.4066486358599</v>
       </c>
       <c r="F14">
-        <v>1.5212814329121201E-2</v>
+        <v>34.085315119999997</v>
       </c>
       <c r="G14">
-        <v>1.22347860579732E-2</v>
+        <v>2.7412846000000001E-2</v>
       </c>
       <c r="H14">
         <v>27.536615772301101</v>
@@ -1977,16 +1985,16 @@
         <v>7.1758558156232305E-2</v>
       </c>
       <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
         <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>33</v>
       </c>
       <c r="Q14">
         <v>8</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14">
         <v>0.1515</v>
@@ -2027,22 +2035,22 @@
     </row>
     <row r="15" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
         <v>119</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E15">
         <v>17521.556237936002</v>
       </c>
       <c r="F15">
-        <v>0.21741486883014599</v>
+        <v>487.13237120000002</v>
       </c>
       <c r="G15">
-        <v>1.24084222815448E-2</v>
+        <v>2.7801889999999999E-2</v>
       </c>
       <c r="H15">
         <v>16.5782802861366</v>
@@ -2066,16 +2074,16 @@
         <v>1.02554183410446</v>
       </c>
       <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
         <v>32</v>
-      </c>
-      <c r="P15" t="s">
-        <v>33</v>
       </c>
       <c r="Q15">
         <v>8</v>
       </c>
       <c r="R15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15">
         <v>0.15429999999999999</v>
@@ -2116,22 +2124,22 @@
     </row>
     <row r="16" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E16">
         <v>793.29226827621403</v>
       </c>
       <c r="F16">
-        <v>9.3976092176189397E-3</v>
+        <v>21.05596405</v>
       </c>
       <c r="G16">
-        <v>1.18463391027867E-2</v>
+        <v>2.6542505000000001E-2</v>
       </c>
       <c r="H16">
         <v>11.593020248962899</v>
@@ -2155,16 +2163,16 @@
         <v>4.4328345366127002E-2</v>
       </c>
       <c r="O16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
         <v>32</v>
-      </c>
-      <c r="P16" t="s">
-        <v>33</v>
       </c>
       <c r="Q16">
         <v>8</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16">
         <v>0.1457</v>
@@ -2205,22 +2213,22 @@
     </row>
     <row r="17" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
         <v>125</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>126</v>
-      </c>
-      <c r="D17" t="s">
-        <v>127</v>
       </c>
       <c r="E17">
         <v>3298.3010396957302</v>
       </c>
       <c r="F17">
-        <v>4.0073298588492803E-2</v>
+        <v>89.786871840000003</v>
       </c>
       <c r="G17">
-        <v>1.21496789123255E-2</v>
+        <v>2.7222158E-2</v>
       </c>
       <c r="H17">
         <v>15.5577753687714</v>
@@ -2244,16 +2252,16 @@
         <v>0.189024993341947</v>
       </c>
       <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
         <v>32</v>
-      </c>
-      <c r="P17" t="s">
-        <v>33</v>
       </c>
       <c r="Q17">
         <v>8</v>
       </c>
       <c r="R17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S17">
         <v>0.16020000000000001</v>
@@ -2294,22 +2302,22 @@
     </row>
     <row r="18" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
         <v>128</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
       </c>
       <c r="E18">
         <v>616.04777121543805</v>
       </c>
       <c r="F18">
-        <v>4.3443977193881799E-3</v>
+        <v>9.7339099840000003</v>
       </c>
       <c r="G18">
-        <v>7.0520468093194302E-3</v>
+        <v>1.5800577E-2</v>
       </c>
       <c r="H18">
         <v>20.445728907259902</v>
@@ -2333,16 +2341,16 @@
         <v>2.0492442072585701E-2</v>
       </c>
       <c r="O18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
         <v>32</v>
-      </c>
-      <c r="P18" t="s">
-        <v>33</v>
       </c>
       <c r="Q18">
         <v>8</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S18">
         <v>0.14680000000000001</v>
@@ -2383,22 +2391,22 @@
     </row>
     <row r="19" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
         <v>131</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E19">
         <v>277.973155260086</v>
       </c>
       <c r="F19">
-        <v>1.77389911504202E-3</v>
+        <v>3.9745381119999998</v>
       </c>
       <c r="G19">
-        <v>6.3815482951304304E-3</v>
+        <v>1.429828E-2</v>
       </c>
       <c r="H19">
         <v>16.8692688386306</v>
@@ -2422,16 +2430,16 @@
         <v>8.3674486558586308E-3</v>
       </c>
       <c r="O19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" t="s">
         <v>32</v>
-      </c>
-      <c r="P19" t="s">
-        <v>33</v>
       </c>
       <c r="Q19">
         <v>8</v>
       </c>
       <c r="R19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19">
         <v>0.14030000000000001</v>
@@ -2472,22 +2480,22 @@
     </row>
     <row r="20" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
         <v>134</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E20">
         <v>520.48167705535798</v>
       </c>
       <c r="F20">
-        <v>3.2902257740341401E-3</v>
+        <v>7.3719681259999996</v>
       </c>
       <c r="G20">
-        <v>6.3215016379610002E-3</v>
+        <v>1.4163742E-2</v>
       </c>
       <c r="H20">
         <v>20.473519806158599</v>
@@ -2511,16 +2519,16 @@
         <v>1.55199328963874E-2</v>
       </c>
       <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
         <v>32</v>
-      </c>
-      <c r="P20" t="s">
-        <v>33</v>
       </c>
       <c r="Q20">
         <v>8</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S20">
         <v>0.1343</v>
@@ -2561,22 +2569,22 @@
     </row>
     <row r="21" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
         <v>137</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>138</v>
-      </c>
-      <c r="D21" t="s">
-        <v>139</v>
       </c>
       <c r="E21">
         <v>320.02003312110901</v>
       </c>
       <c r="F21">
-        <v>2.0233879247071101E-3</v>
+        <v>4.5335342650000001</v>
       </c>
       <c r="G21">
-        <v>6.3226914420741404E-3</v>
+        <v>1.4166408E-2</v>
       </c>
       <c r="H21">
         <v>26.204137606178499</v>
@@ -2600,16 +2608,16 @@
         <v>9.5442826637128202E-3</v>
       </c>
       <c r="O21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" t="s">
         <v>32</v>
-      </c>
-      <c r="P21" t="s">
-        <v>33</v>
       </c>
       <c r="Q21">
         <v>8</v>
       </c>
       <c r="R21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S21">
         <v>0.1376</v>
@@ -2650,22 +2658,22 @@
     </row>
     <row r="22" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
         <v>140</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>141</v>
-      </c>
-      <c r="D22" t="s">
-        <v>142</v>
       </c>
       <c r="E22">
         <v>6700.5860884189597</v>
       </c>
       <c r="F22">
-        <v>8.1091133864574894E-2</v>
+        <v>181.69004050000001</v>
       </c>
       <c r="G22">
-        <v>1.21020956666357E-2</v>
+        <v>2.7115545000000001E-2</v>
       </c>
       <c r="H22">
         <v>17.682975844141101</v>
@@ -2689,16 +2697,16 @@
         <v>0.38250534841780598</v>
       </c>
       <c r="O22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" t="s">
         <v>32</v>
-      </c>
-      <c r="P22" t="s">
-        <v>33</v>
       </c>
       <c r="Q22">
         <v>8</v>
       </c>
       <c r="R22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S22">
         <v>7.8799999999999995E-2</v>
@@ -2759,12 +2767,14 @@
   <dimension ref="B3:AD42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -2781,99 +2791,99 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>19</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>20</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>21</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>27</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
         <v>143</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>144</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
       </c>
       <c r="E4">
         <v>163.63387656211799</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.0796548385937201E-3</v>
+      <c r="F4" s="2">
+        <v>2.4190379638000001</v>
       </c>
       <c r="G4">
-        <v>6.5979909617545898E-3</v>
+        <v>1.4783233999999999E-2</v>
       </c>
       <c r="H4">
         <v>17.7128584633532</v>
@@ -2897,16 +2907,16 @@
         <v>5.0927115028005796E-3</v>
       </c>
       <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
         <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
       </c>
       <c r="Q4">
         <v>8</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4">
         <v>0.15820000000000001</v>
@@ -2947,22 +2957,22 @@
     </row>
     <row r="5" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
         <v>146</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E5">
         <v>295.05446958541802</v>
       </c>
-      <c r="F5" s="1">
-        <v>1.6679661268756199E-3</v>
+      <c r="F5" s="2">
+        <v>3.737188256</v>
       </c>
       <c r="G5">
-        <v>5.6530786644895803E-3</v>
+        <v>1.2666096E-2</v>
       </c>
       <c r="H5">
         <v>16.921074542022101</v>
@@ -2986,16 +2996,16 @@
         <v>7.8677647494132998E-3</v>
       </c>
       <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
         <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
       </c>
       <c r="Q5">
         <v>8</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5">
         <v>0.43409999999999999</v>
@@ -3036,22 +3046,22 @@
     </row>
     <row r="6" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
         <v>149</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>150</v>
-      </c>
-      <c r="D6" t="s">
-        <v>151</v>
       </c>
       <c r="E6">
         <v>2773.72489333152</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.80382364860973E-2</v>
+      <c r="F6" s="2">
+        <v>40.415860051400003</v>
       </c>
       <c r="G6">
-        <v>6.50325363177296E-3</v>
+        <v>1.4570969E-2</v>
       </c>
       <c r="H6">
         <v>20.334299570399502</v>
@@ -3075,16 +3085,16 @@
         <v>8.5086021160836398E-2</v>
       </c>
       <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
       </c>
       <c r="Q6">
         <v>8</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6">
         <v>0.33600000000000002</v>
@@ -3125,22 +3135,22 @@
     </row>
     <row r="7" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
         <v>152</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>153</v>
-      </c>
-      <c r="D7" t="s">
-        <v>154</v>
       </c>
       <c r="E7">
         <v>2310.2193052768698</v>
       </c>
-      <c r="F7">
-        <v>1.7385855113192201E-2</v>
+      <c r="F7" s="2">
+        <v>38.954156503599997</v>
       </c>
       <c r="G7">
-        <v>7.52562974150571E-3</v>
+        <v>1.6861669999999999E-2</v>
       </c>
       <c r="H7">
         <v>17.2945044756869</v>
@@ -3164,16 +3174,16 @@
         <v>8.2008750533925895E-2</v>
       </c>
       <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
         <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
       </c>
       <c r="Q7">
         <v>8</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7">
         <v>0.36559999999999998</v>
@@ -3214,22 +3224,22 @@
     </row>
     <row r="8" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
         <v>155</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>156</v>
-      </c>
-      <c r="D8" t="s">
-        <v>157</v>
       </c>
       <c r="E8">
         <v>1562.59286236763</v>
       </c>
-      <c r="F8">
-        <v>1.27332549018808E-2</v>
+      <c r="F8" s="2">
+        <v>28.529698483000001</v>
       </c>
       <c r="G8">
-        <v>8.1487988384814896E-3</v>
+        <v>1.8257921999999999E-2</v>
       </c>
       <c r="H8">
         <v>12.519441412056301</v>
@@ -3253,16 +3263,16 @@
         <v>6.0062523122079298E-2</v>
       </c>
       <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
         <v>32</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
       </c>
       <c r="Q8">
         <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8">
         <v>0.21729999999999999</v>
@@ -3303,22 +3313,22 @@
     </row>
     <row r="9" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s">
         <v>158</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>159</v>
-      </c>
-      <c r="D9" t="s">
-        <v>160</v>
       </c>
       <c r="E9">
         <v>2609.4207839965802</v>
       </c>
-      <c r="F9">
-        <v>2.7427924735191699E-2</v>
+      <c r="F9" s="2">
+        <v>61.454076647199997</v>
       </c>
       <c r="G9">
-        <v>1.05111160696678E-2</v>
+        <v>2.3550850000000002E-2</v>
       </c>
       <c r="H9">
         <v>17.2792817782985</v>
@@ -3342,16 +3352,16 @@
         <v>0.129377003467885</v>
       </c>
       <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
         <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9">
         <v>0.32100000000000001</v>
@@ -3392,22 +3402,22 @@
     </row>
     <row r="10" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
         <v>161</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>162</v>
-      </c>
-      <c r="D10" t="s">
-        <v>163</v>
       </c>
       <c r="E10">
         <v>715.59129738807599</v>
       </c>
-      <c r="F10">
-        <v>2.65606540176248E-3</v>
+      <c r="F10" s="2">
+        <v>5.9510899331999996</v>
       </c>
       <c r="G10">
-        <v>3.71170724330659E-3</v>
+        <v>8.3163249999999994E-3</v>
       </c>
       <c r="H10">
         <v>17.872329121378801</v>
@@ -3431,16 +3441,16 @@
         <v>1.2528610385672099E-2</v>
       </c>
       <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
         <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
       </c>
       <c r="Q10">
         <v>8</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10">
         <v>0.44309999999999999</v>
@@ -3481,22 +3491,22 @@
     </row>
     <row r="11" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
         <v>164</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>165</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
       </c>
       <c r="E11">
         <v>1536.33967995643</v>
       </c>
-      <c r="F11">
-        <v>1.0558357034887E-2</v>
+      <c r="F11" s="2">
+        <v>23.6566961867</v>
       </c>
       <c r="G11">
-        <v>6.8724105564899997E-3</v>
+        <v>1.539809E-2</v>
       </c>
       <c r="H11">
         <v>16.626937408852999</v>
@@ -3520,16 +3530,16 @@
         <v>4.98035709192787E-2</v>
       </c>
       <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
         <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
       </c>
       <c r="Q11">
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11">
         <v>0.3206</v>
@@ -3570,22 +3580,22 @@
     </row>
     <row r="12" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
         <v>167</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>168</v>
-      </c>
-      <c r="D12" t="s">
-        <v>169</v>
       </c>
       <c r="E12">
         <v>2019.62742829322</v>
       </c>
-      <c r="F12">
-        <v>1.35116773086956E-2</v>
+      <c r="F12" s="2">
+        <v>30.2738052907</v>
       </c>
       <c r="G12">
-        <v>6.6901831097205102E-3</v>
+        <v>1.4989796999999999E-2</v>
       </c>
       <c r="H12">
         <v>17.8437569006961</v>
@@ -3609,16 +3619,16 @@
         <v>6.3734326927809601E-2</v>
       </c>
       <c r="O12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
         <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>33</v>
       </c>
       <c r="Q12">
         <v>8</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12">
         <v>0.38119999999999998</v>
@@ -3659,22 +3669,22 @@
     </row>
     <row r="13" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
         <v>170</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>171</v>
-      </c>
-      <c r="D13" t="s">
-        <v>172</v>
       </c>
       <c r="E13">
         <v>1628.3141489028901</v>
       </c>
-      <c r="F13">
-        <v>1.0899636532975E-2</v>
+      <c r="F13" s="2">
+        <v>24.421355439399999</v>
       </c>
       <c r="G13">
-        <v>6.6938167553962803E-3</v>
+        <v>1.4997938000000001E-2</v>
       </c>
       <c r="H13">
         <v>17.010969380888199</v>
@@ -3698,16 +3708,16 @@
         <v>5.1413379872523701E-2</v>
       </c>
       <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
         <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>33</v>
       </c>
       <c r="Q13">
         <v>8</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13">
         <v>0.3548</v>
@@ -3748,22 +3758,22 @@
     </row>
     <row r="14" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
         <v>173</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>174</v>
-      </c>
-      <c r="D14" t="s">
-        <v>175</v>
       </c>
       <c r="E14">
         <v>3844.2724027633599</v>
       </c>
-      <c r="F14">
-        <v>3.3629058401130098E-2</v>
+      <c r="F14" s="2">
+        <v>75.348126134599994</v>
       </c>
       <c r="G14">
-        <v>8.7478344086534196E-3</v>
+        <v>1.9600101000000002E-2</v>
       </c>
       <c r="H14">
         <v>16.987893793484002</v>
@@ -3787,16 +3797,16 @@
         <v>0.15862763396759499</v>
       </c>
       <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
         <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>33</v>
       </c>
       <c r="Q14">
         <v>8</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14">
         <v>0.33389999999999997</v>
@@ -3837,22 +3847,22 @@
     </row>
     <row r="15" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="s">
         <v>176</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>177</v>
-      </c>
-      <c r="D15" t="s">
-        <v>178</v>
       </c>
       <c r="E15">
         <v>12072.897560834799</v>
       </c>
-      <c r="F15">
-        <v>0.13352670135313099</v>
+      <c r="F15" s="2">
+        <v>299.17539218270002</v>
       </c>
       <c r="G15">
-        <v>1.1060037632249799E-2</v>
+        <v>2.4780745E-2</v>
       </c>
       <c r="H15">
         <v>19.657749112282701</v>
@@ -3876,16 +3886,16 @@
         <v>0.62984293091099797</v>
       </c>
       <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
         <v>32</v>
-      </c>
-      <c r="P15" t="s">
-        <v>33</v>
       </c>
       <c r="Q15">
         <v>8</v>
       </c>
       <c r="R15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15">
         <v>0.36430000000000001</v>
@@ -3926,22 +3936,22 @@
     </row>
     <row r="16" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" t="s">
         <v>179</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>180</v>
-      </c>
-      <c r="D16" t="s">
-        <v>181</v>
       </c>
       <c r="E16">
         <v>2575.9173588752701</v>
       </c>
-      <c r="F16">
-        <v>2.0123942102378702E-2</v>
+      <c r="F16" s="2">
+        <v>45.089021219999999</v>
       </c>
       <c r="G16">
-        <v>7.81233995455717E-3</v>
+        <v>1.7504064E-2</v>
       </c>
       <c r="H16">
         <v>20.053748378326599</v>
@@ -3965,16 +3975,16 @@
         <v>9.4924255199899499E-2</v>
       </c>
       <c r="O16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
         <v>32</v>
-      </c>
-      <c r="P16" t="s">
-        <v>33</v>
       </c>
       <c r="Q16">
         <v>8</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16">
         <v>0.36770000000000003</v>
@@ -4015,22 +4025,22 @@
     </row>
     <row r="17" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
         <v>182</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>183</v>
-      </c>
-      <c r="D17" t="s">
-        <v>184</v>
       </c>
       <c r="E17">
         <v>3312.7130498886099</v>
       </c>
-      <c r="F17">
-        <v>3.1638408402701802E-2</v>
+      <c r="F17" s="2">
+        <v>70.887943355100006</v>
       </c>
       <c r="G17">
-        <v>9.5506033653490491E-3</v>
+        <v>2.1398758E-2</v>
       </c>
       <c r="H17">
         <v>19.167165011895399</v>
@@ -4054,16 +4064,16 @@
         <v>0.149237775484442</v>
       </c>
       <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
         <v>32</v>
-      </c>
-      <c r="P17" t="s">
-        <v>33</v>
       </c>
       <c r="Q17">
         <v>8</v>
       </c>
       <c r="R17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S17">
         <v>0.38059999999999999</v>
@@ -4168,12 +4178,13 @@
   <dimension ref="B3:AD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4191,99 +4202,99 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>19</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>20</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>21</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>27</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
       </c>
       <c r="E4">
         <v>219.650046825408</v>
       </c>
       <c r="F4">
-        <v>1.4797876376998001E-3</v>
+        <v>3.3155619239999998</v>
       </c>
       <c r="G4">
-        <v>6.73702400289505E-3</v>
+        <v>1.5094747E-2</v>
       </c>
       <c r="H4">
         <v>24.901791888487399</v>
@@ -4307,16 +4318,16 @@
         <v>6.9801303665085E-3</v>
       </c>
       <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
         <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
       </c>
       <c r="Q4">
         <v>8</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4">
         <v>4.0000000000000001E-3</v>
@@ -4357,22 +4368,22 @@
     </row>
     <row r="5" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
       </c>
       <c r="E5">
         <v>434.35305523872302</v>
       </c>
       <c r="F5">
-        <v>2.1790845747143598E-3</v>
+        <v>4.8823828909999998</v>
       </c>
       <c r="G5">
-        <v>5.0168510349644603E-3</v>
+        <v>1.1240586E-2</v>
       </c>
       <c r="H5">
         <v>9.2259604506592492</v>
@@ -4396,16 +4407,16 @@
         <v>1.02787008241243E-2</v>
       </c>
       <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
         <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
       </c>
       <c r="Q5">
         <v>8</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5">
         <v>3.85E-2</v>
@@ -4446,22 +4457,22 @@
     </row>
     <row r="6" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
       </c>
       <c r="E6">
         <v>2057.4160144328998</v>
       </c>
       <c r="F6">
-        <v>1.37813161939042E-2</v>
+        <v>30.877949019999999</v>
       </c>
       <c r="G6">
-        <v>6.6983614870436501E-3</v>
+        <v>1.5008120999999999E-2</v>
       </c>
       <c r="H6">
         <v>23.246796504292998</v>
@@ -4485,16 +4496,16 @@
         <v>6.5006208461812404E-2</v>
       </c>
       <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
       </c>
       <c r="Q6">
         <v>8</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6">
         <v>1.3899999999999999E-2</v>
@@ -4535,22 +4546,22 @@
     </row>
     <row r="7" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
       </c>
       <c r="E7">
         <v>2860.04140543937</v>
       </c>
       <c r="F7">
-        <v>2.28282638455337E-2</v>
+        <v>51.148232669999999</v>
       </c>
       <c r="G7">
-        <v>7.9817948796537495E-3</v>
+        <v>1.7883738999999999E-2</v>
       </c>
       <c r="H7">
         <v>20.681903344991699</v>
@@ -4574,16 +4585,16 @@
         <v>0.107680489837423</v>
       </c>
       <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
         <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
       </c>
       <c r="Q7">
         <v>8</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7">
         <v>1.9199999999999998E-2</v>
@@ -4624,22 +4635,22 @@
     </row>
     <row r="8" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
       <c r="E8">
         <v>8159.6631717681803</v>
       </c>
       <c r="F8">
-        <v>8.0622542106640799E-2</v>
+        <v>180.64012969999999</v>
       </c>
       <c r="G8">
-        <v>9.8806213454482594E-3</v>
+        <v>2.2138185000000001E-2</v>
       </c>
       <c r="H8">
         <v>24.5490434960718</v>
@@ -4663,16 +4674,16 @@
         <v>0.38029500993698501</v>
       </c>
       <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
         <v>32</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
       </c>
       <c r="Q8">
         <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8">
         <v>4.0000000000000001E-3</v>
@@ -4713,22 +4724,22 @@
     </row>
     <row r="9" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
       </c>
       <c r="E9">
         <v>8853.9126484394001</v>
       </c>
       <c r="F9">
-        <v>2.7081147563970301E-2</v>
+        <v>60.677099490000003</v>
       </c>
       <c r="G9">
-        <v>3.0586644164310398E-3</v>
+        <v>6.8531399999999998E-3</v>
       </c>
       <c r="H9">
         <v>21.5706818812629</v>
@@ -4752,16 +4763,16 @@
         <v>0.127741262094199</v>
       </c>
       <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
         <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9">
         <v>8.0999999999999996E-3</v>
@@ -4802,22 +4813,22 @@
     </row>
     <row r="10" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
       </c>
       <c r="E10">
         <v>5157.6479778289704</v>
       </c>
       <c r="F10">
-        <v>4.9724568337018098E-2</v>
+        <v>111.4111791</v>
       </c>
       <c r="G10">
-        <v>9.6409387671992294E-3</v>
+        <v>2.1601160000000001E-2</v>
       </c>
       <c r="H10">
         <v>16.522817565041201</v>
@@ -4841,16 +4852,16 @@
         <v>0.23454985064631101</v>
       </c>
       <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
         <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
       </c>
       <c r="Q10">
         <v>8</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10">
         <v>2.0400000000000001E-2</v>
@@ -4891,25 +4902,25 @@
     </row>
     <row r="11" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E11">
-        <v>2778.91208481788</v>
+        <v>2755.0721051692899</v>
       </c>
       <c r="F11">
-        <v>2.2847215602198399E-2</v>
+        <v>51.246107569999999</v>
       </c>
       <c r="G11">
-        <v>8.2216403055786896E-3</v>
+        <v>1.8600641000000001E-2</v>
       </c>
       <c r="H11">
-        <v>16.656566271822101</v>
+        <v>21.068665816537202</v>
       </c>
       <c r="I11">
         <v>16.190000000000001</v>
@@ -4918,328 +4929,328 @@
         <v>11.7459940910339</v>
       </c>
       <c r="K11">
-        <v>1.7961802186096901E-2</v>
+        <v>1.7904212128358198E-2</v>
       </c>
       <c r="L11">
-        <v>8.0769655921856004E-2</v>
+        <v>8.1021177687588805E-2</v>
       </c>
       <c r="M11">
-        <v>9.0384268080774596E-3</v>
+        <v>8.9611524284356602E-3</v>
       </c>
       <c r="N11">
-        <v>0.10776988491603</v>
+        <v>0.107886542244382</v>
       </c>
       <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
         <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
       </c>
       <c r="Q11">
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11">
-        <v>3.4000000000000002E-2</v>
+        <v>3.27E-2</v>
       </c>
       <c r="T11">
-        <v>4.7199999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="U11">
-        <v>2.5899999999999999E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="V11">
-        <v>0.15079999999999999</v>
+        <v>0.14180000000000001</v>
       </c>
       <c r="W11">
-        <v>1.11E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="X11">
-        <v>1.67E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y11">
-        <v>0.94359999999999999</v>
+        <v>0.94240000000000002</v>
       </c>
       <c r="Z11">
-        <v>0.24879999999999999</v>
+        <v>0.23769999999999999</v>
       </c>
       <c r="AA11">
-        <v>114.6788</v>
+        <v>118.9479</v>
       </c>
       <c r="AB11">
-        <v>0.92479999999999996</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="AC11">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AD11">
-        <v>2.0999999999999999E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12">
-        <v>3614.65233039855</v>
+        <v>2778.91208481788</v>
       </c>
       <c r="F12">
-        <v>3.3340453703245503E-2</v>
+        <v>51.190695339999998</v>
       </c>
       <c r="G12">
-        <v>9.2236958511496304E-3</v>
+        <v>1.8421127999999998E-2</v>
       </c>
       <c r="H12">
-        <v>16.240187735829998</v>
+        <v>16.656566271822101</v>
       </c>
       <c r="I12">
-        <v>15.802</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="J12">
         <v>11.7459940910339</v>
       </c>
       <c r="K12">
-        <v>2.32253307174719E-2</v>
+        <v>1.7961802186096901E-2</v>
       </c>
       <c r="L12">
-        <v>0.12227557858709399</v>
+        <v>8.0769655921856004E-2</v>
       </c>
       <c r="M12">
-        <v>1.1765381748478999E-2</v>
+        <v>9.0384268080774596E-3</v>
       </c>
       <c r="N12">
-        <v>0.15726629105304499</v>
+        <v>0.10776988491603</v>
       </c>
       <c r="O12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
         <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>33</v>
       </c>
       <c r="Q12">
         <v>8</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12">
-        <v>1.8100000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="T12">
-        <v>3.3799999999999997E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="U12">
-        <v>1.6E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="V12">
-        <v>9.9099999999999994E-2</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="W12">
-        <v>6.6E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="X12">
-        <v>1.0800000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Y12">
-        <v>0.93630000000000002</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="Z12">
-        <v>0.49430000000000002</v>
+        <v>0.24879999999999999</v>
       </c>
       <c r="AA12">
-        <v>132.3194</v>
+        <v>114.6788</v>
       </c>
       <c r="AB12">
-        <v>0.86170000000000002</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="AC12">
-        <v>2.9999999999999997E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="AD12">
-        <v>5.7000000000000002E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>13332.3488719463</v>
+        <v>3614.65233039855</v>
       </c>
       <c r="F13">
-        <v>0.15043299196537899</v>
+        <v>74.701488249999997</v>
       </c>
       <c r="G13">
-        <v>1.12833074959445E-2</v>
+        <v>2.0666299999999999E-2</v>
       </c>
       <c r="H13">
-        <v>25.6303178915887</v>
+        <v>16.240187735829998</v>
       </c>
       <c r="I13">
-        <v>17.64</v>
+        <v>15.802</v>
       </c>
       <c r="J13">
         <v>11.7459940910339</v>
       </c>
       <c r="K13">
-        <v>8.1781281929695304E-2</v>
+        <v>2.32253307174719E-2</v>
       </c>
       <c r="L13">
-        <v>0.58434554309915498</v>
+        <v>0.12227557858709399</v>
       </c>
       <c r="M13">
-        <v>4.3462759713507798E-2</v>
+        <v>1.1765381748478999E-2</v>
       </c>
       <c r="N13">
-        <v>0.709589584742357</v>
+        <v>0.15726629105304499</v>
       </c>
       <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
         <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>33</v>
       </c>
       <c r="Q13">
         <v>8</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13">
-        <v>1.17E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="T13">
-        <v>2.3099999999999999E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="U13">
-        <v>1.0500000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="V13">
-        <v>6.9500000000000006E-2</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="W13">
-        <v>4.1000000000000003E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="X13">
-        <v>7.4999999999999997E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="Y13">
-        <v>0.90410000000000001</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="Z13">
-        <v>1.06E-2</v>
+        <v>0.49430000000000002</v>
       </c>
       <c r="AA13">
-        <v>290.48250000000002</v>
+        <v>132.3194</v>
       </c>
       <c r="AB13">
-        <v>0.99790000000000001</v>
+        <v>0.86170000000000002</v>
       </c>
       <c r="AC13">
-        <v>8.8000000000000005E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="14" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>2533.2493340968999</v>
+        <v>13332.3488719463</v>
       </c>
       <c r="F14">
-        <v>1.9743751208440699E-2</v>
+        <v>337.0550528</v>
       </c>
       <c r="G14">
-        <v>7.7938444284558796E-3</v>
+        <v>2.5280996E-2</v>
       </c>
       <c r="H14">
-        <v>16.1278108761887</v>
+        <v>25.6303178915887</v>
       </c>
       <c r="I14">
-        <v>17.457999999999998</v>
+        <v>17.64</v>
       </c>
       <c r="J14">
         <v>11.7459940910339</v>
       </c>
       <c r="K14">
-        <v>1.6777213612037899E-2</v>
+        <v>8.1781281929695304E-2</v>
       </c>
       <c r="L14">
-        <v>6.8116446950520507E-2</v>
+        <v>0.58434554309915498</v>
       </c>
       <c r="M14">
-        <v>8.2372413640488893E-3</v>
+        <v>4.3462759713507798E-2</v>
       </c>
       <c r="N14">
-        <v>9.3130901926607404E-2</v>
+        <v>0.709589584742357</v>
       </c>
       <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
         <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>33</v>
       </c>
       <c r="Q14">
         <v>8</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14">
-        <v>1.4500000000000001E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="T14">
-        <v>2.58E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="U14">
-        <v>1.23E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="V14">
-        <v>8.0600000000000005E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="W14">
-        <v>4.7999999999999996E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="X14">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Y14">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>1.06E-2</v>
+      </c>
+      <c r="AA14">
+        <v>290.48250000000002</v>
+      </c>
+      <c r="AB14">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="AC14">
         <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="Y14">
-        <v>0.91710000000000003</v>
-      </c>
-      <c r="Z14">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="AA14">
-        <v>278.08260000000001</v>
-      </c>
-      <c r="AB14">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="AC14">
-        <v>9.7000000000000003E-3</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -5247,88 +5258,88 @@
     </row>
     <row r="15" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
       </c>
       <c r="E15">
-        <v>4566.83929872512</v>
+        <v>2533.2493340968999</v>
       </c>
       <c r="F15">
-        <v>4.4240692477608798E-2</v>
+        <v>44.237178419999999</v>
       </c>
       <c r="G15">
-        <v>9.6873766698904896E-3</v>
+        <v>1.7462623E-2</v>
       </c>
       <c r="H15">
-        <v>17.030503399449699</v>
+        <v>16.1278108761887</v>
       </c>
       <c r="I15">
-        <v>15.994999999999999</v>
+        <v>17.457999999999998</v>
       </c>
       <c r="J15">
         <v>11.7459940910339</v>
       </c>
       <c r="K15">
-        <v>2.89711931152692E-2</v>
+        <v>1.6777213612037899E-2</v>
       </c>
       <c r="L15">
-        <v>0.16484126547261299</v>
+        <v>6.8116446950520507E-2</v>
       </c>
       <c r="M15">
-        <v>1.48700530989511E-2</v>
+        <v>8.2372413640488893E-3</v>
       </c>
       <c r="N15">
-        <v>0.20868251168683399</v>
+        <v>9.3130901926607404E-2</v>
       </c>
       <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
         <v>32</v>
-      </c>
-      <c r="P15" t="s">
-        <v>33</v>
       </c>
       <c r="Q15">
         <v>8</v>
       </c>
       <c r="R15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15">
-        <v>1.8499999999999999E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="T15">
-        <v>3.3099999999999997E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="U15">
-        <v>1.6E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="V15">
-        <v>0.10050000000000001</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="W15">
-        <v>6.4999999999999997E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="X15">
-        <v>1.11E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="Y15">
-        <v>0.92879999999999996</v>
+        <v>0.91710000000000003</v>
       </c>
       <c r="Z15">
-        <v>2.3300000000000001E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="AA15">
-        <v>201.9727</v>
+        <v>278.08260000000001</v>
       </c>
       <c r="AB15">
-        <v>0.99519999999999997</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="AC15">
-        <v>4.5999999999999999E-3</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -5336,88 +5347,88 @@
     </row>
     <row r="16" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E16">
-        <v>1205.67825937271</v>
+        <v>4566.83929872512</v>
       </c>
       <c r="F16">
-        <v>7.8716448563687594E-3</v>
+        <v>99.124193050000002</v>
       </c>
       <c r="G16">
-        <v>6.5288104808858402E-3</v>
+        <v>2.1705207000000001E-2</v>
       </c>
       <c r="H16">
-        <v>16.935284269774002</v>
+        <v>17.030503399449699</v>
       </c>
       <c r="I16">
-        <v>72.805000000000007</v>
+        <v>15.994999999999999</v>
       </c>
       <c r="J16">
         <v>11.7459940910339</v>
       </c>
       <c r="K16">
-        <v>8.4872086053169992E-3</v>
+        <v>2.89711931152692E-2</v>
       </c>
       <c r="L16">
-        <v>2.4715167349036501E-2</v>
+        <v>0.16484126547261299</v>
       </c>
       <c r="M16">
-        <v>3.9280243115368497E-3</v>
+        <v>1.48700530989511E-2</v>
       </c>
       <c r="N16">
-        <v>3.7130400265890297E-2</v>
+        <v>0.20868251168683399</v>
       </c>
       <c r="O16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
         <v>32</v>
-      </c>
-      <c r="P16" t="s">
-        <v>33</v>
       </c>
       <c r="Q16">
         <v>8</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16">
-        <v>4.19E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="T16">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="U16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="V16">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="W16">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="X16">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Y16">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="Z16">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="U16">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="V16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="W16">
-        <v>1.47E-2</v>
-      </c>
-      <c r="X16">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="Y16">
-        <v>0.85270000000000001</v>
-      </c>
-      <c r="Z16">
-        <v>7.4800000000000005E-2</v>
-      </c>
       <c r="AA16">
-        <v>228.63040000000001</v>
+        <v>201.9727</v>
       </c>
       <c r="AB16">
-        <v>0.98950000000000005</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="AC16">
-        <v>6.1000000000000004E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -5425,447 +5436,447 @@
     </row>
     <row r="17" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E17">
-        <v>1445.25697398185</v>
+        <v>1205.67825937271</v>
       </c>
       <c r="F17">
-        <v>9.4205327720390392E-3</v>
+        <v>17.636940129999999</v>
       </c>
       <c r="G17">
-        <v>6.5182406600566897E-3</v>
+        <v>1.4628231E-2</v>
       </c>
       <c r="H17">
-        <v>16.792743513776799</v>
+        <v>16.935284269774002</v>
       </c>
       <c r="I17">
-        <v>72.902000000000001</v>
+        <v>72.805000000000007</v>
       </c>
       <c r="J17">
         <v>11.7459940910339</v>
       </c>
       <c r="K17">
-        <v>9.9254462511839808E-3</v>
+        <v>8.4872086053169992E-3</v>
       </c>
       <c r="L17">
-        <v>2.9800449812147401E-2</v>
+        <v>2.4715167349036501E-2</v>
       </c>
       <c r="M17">
-        <v>4.7105792764754002E-3</v>
+        <v>3.9280243115368497E-3</v>
       </c>
       <c r="N17">
-        <v>4.44364753398067E-2</v>
+        <v>3.7130400265890297E-2</v>
       </c>
       <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
         <v>32</v>
-      </c>
-      <c r="P17" t="s">
-        <v>33</v>
       </c>
       <c r="Q17">
         <v>8</v>
       </c>
       <c r="R17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S17">
-        <v>2.01E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="T17">
-        <v>1.0699999999999999E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="U17">
-        <v>1.06E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="V17">
-        <v>3.3599999999999998E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="W17">
+        <v>1.47E-2</v>
+      </c>
+      <c r="X17">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="Y17">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="Z17">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="AA17">
+        <v>228.63040000000001</v>
+      </c>
+      <c r="AB17">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="AC17">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="X17">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="Y17">
-        <v>0.76429999999999998</v>
-      </c>
-      <c r="Z17">
-        <v>1.26E-2</v>
-      </c>
-      <c r="AA17">
-        <v>380.74020000000002</v>
-      </c>
-      <c r="AB17">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="AC17">
-        <v>2.2200000000000001E-2</v>
-      </c>
       <c r="AD17">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>2122.0545887947001</v>
+        <v>1445.25697398185</v>
       </c>
       <c r="F18">
-        <v>1.3895661517473E-2</v>
+        <v>21.107325790000001</v>
       </c>
       <c r="G18">
-        <v>6.5482111491606404E-3</v>
+        <v>1.4604549E-2</v>
       </c>
       <c r="H18">
-        <v>17.684131894548599</v>
+        <v>16.792743513776799</v>
       </c>
       <c r="I18">
-        <v>72.998999999999995</v>
+        <v>72.902000000000001</v>
       </c>
       <c r="J18">
         <v>11.7459940910339</v>
       </c>
       <c r="K18">
-        <v>1.3887205950866901E-2</v>
+        <v>9.9254462511839808E-3</v>
       </c>
       <c r="L18">
-        <v>4.47424310904707E-2</v>
+        <v>2.9800449812147401E-2</v>
       </c>
       <c r="M18">
-        <v>6.9159361542897599E-3</v>
+        <v>4.7105792764754002E-3</v>
       </c>
       <c r="N18">
-        <v>6.5545573195627399E-2</v>
+        <v>4.44364753398067E-2</v>
       </c>
       <c r="O18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
         <v>32</v>
-      </c>
-      <c r="P18" t="s">
-        <v>33</v>
       </c>
       <c r="Q18">
         <v>8</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S18">
-        <v>1.9900000000000001E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="T18">
-        <v>1.1299999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="U18">
-        <v>1.1299999999999999E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="V18">
-        <v>3.0499999999999999E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="W18">
-        <v>7.1999999999999998E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="X18">
-        <v>3.2000000000000002E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="Y18">
-        <v>0.73970000000000002</v>
+        <v>0.76429999999999998</v>
       </c>
       <c r="Z18">
-        <v>8.4199999999999997E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="AA18">
-        <v>264.18119999999999</v>
+        <v>380.74020000000002</v>
       </c>
       <c r="AB18">
-        <v>0.99519999999999997</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="AC18">
-        <v>4.3E-3</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="19" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
       </c>
       <c r="E19">
-        <v>2303.5013937950098</v>
+        <v>2122.0545887947001</v>
       </c>
       <c r="F19">
-        <v>1.52381564422429E-2</v>
+        <v>31.13414727</v>
       </c>
       <c r="G19">
-        <v>6.61521476969375E-3</v>
+        <v>1.4671699999999999E-2</v>
       </c>
       <c r="H19">
-        <v>16.735863145682501</v>
+        <v>17.684131894548599</v>
       </c>
       <c r="I19">
-        <v>72.902000000000001</v>
+        <v>72.998999999999995</v>
       </c>
       <c r="J19">
         <v>11.7459940910339</v>
       </c>
       <c r="K19">
-        <v>1.53580100563982E-2</v>
+        <v>1.3887205950866901E-2</v>
       </c>
       <c r="L19">
-        <v>4.9010278643167399E-2</v>
+        <v>4.47424310904707E-2</v>
       </c>
       <c r="M19">
-        <v>7.5098077261084896E-3</v>
+        <v>6.9159361542897599E-3</v>
       </c>
       <c r="N19">
-        <v>7.1878096425674096E-2</v>
+        <v>6.5545573195627399E-2</v>
       </c>
       <c r="O19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" t="s">
         <v>32</v>
-      </c>
-      <c r="P19" t="s">
-        <v>33</v>
       </c>
       <c r="Q19">
         <v>8</v>
       </c>
       <c r="R19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19">
-        <v>1.4E-3</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="T19">
-        <v>8.9999999999999998E-4</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="U19">
-        <v>8.0000000000000004E-4</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="V19">
-        <v>2.8E-3</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="W19">
-        <v>4.0000000000000002E-4</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="X19">
-        <v>2.9999999999999997E-4</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Y19">
-        <v>0.68340000000000001</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="Z19">
-        <v>0.7772</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="AA19">
-        <v>33.745800000000003</v>
+        <v>264.18119999999999</v>
       </c>
       <c r="AB19">
-        <v>0.59630000000000005</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="AC19">
-        <v>1E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="AD19">
-        <v>1.1000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20">
-        <v>1762.1269485950399</v>
+        <v>2303.5013937950098</v>
       </c>
       <c r="F20">
-        <v>1.2344670018572101E-2</v>
+        <v>34.1420958</v>
       </c>
       <c r="G20">
-        <v>7.0055508931491104E-3</v>
+        <v>1.4821826E-2</v>
       </c>
       <c r="H20">
-        <v>16.9895195287848</v>
+        <v>16.735863145682501</v>
       </c>
       <c r="I20">
-        <v>72.593000000000004</v>
+        <v>72.902000000000001</v>
       </c>
       <c r="J20">
         <v>11.7459940910339</v>
       </c>
       <c r="K20">
-        <v>1.19148191154587E-2</v>
+        <v>1.53580100563982E-2</v>
       </c>
       <c r="L20">
-        <v>4.0572374060144099E-2</v>
+        <v>4.9010278643167399E-2</v>
       </c>
       <c r="M20">
-        <v>5.7423823836997498E-3</v>
+        <v>7.5098077261084896E-3</v>
       </c>
       <c r="N20">
-        <v>5.8229575559302603E-2</v>
+        <v>7.1878096425674096E-2</v>
       </c>
       <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
         <v>32</v>
-      </c>
-      <c r="P20" t="s">
-        <v>33</v>
       </c>
       <c r="Q20">
         <v>8</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S20">
+        <v>1.4E-3</v>
+      </c>
+      <c r="T20">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="U20">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="V20">
+        <v>2.8E-3</v>
+      </c>
+      <c r="W20">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="X20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Y20">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>0.7772</v>
+      </c>
+      <c r="AA20">
+        <v>33.745800000000003</v>
+      </c>
+      <c r="AB20">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="AC20">
+        <v>1E-3</v>
+      </c>
+      <c r="AD20">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21">
+        <v>1762.1269485950399</v>
+      </c>
+      <c r="F21">
+        <v>27.659048389999999</v>
+      </c>
+      <c r="G21">
+        <v>1.5696399E-2</v>
+      </c>
+      <c r="H21">
+        <v>16.9895195287848</v>
+      </c>
+      <c r="I21">
+        <v>72.593000000000004</v>
+      </c>
+      <c r="J21">
+        <v>11.7459940910339</v>
+      </c>
+      <c r="K21">
+        <v>1.19148191154587E-2</v>
+      </c>
+      <c r="L21">
+        <v>4.0572374060144099E-2</v>
+      </c>
+      <c r="M21">
+        <v>5.7423823836997498E-3</v>
+      </c>
+      <c r="N21">
+        <v>5.8229575559302603E-2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+      <c r="R21" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="T20">
+      <c r="T21">
         <v>1.55E-2</v>
       </c>
-      <c r="U20">
+      <c r="U21">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="W20">
+      <c r="W21">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="X20">
+      <c r="X21">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <v>0.8508</v>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <v>5.67E-2</v>
       </c>
-      <c r="AA20">
+      <c r="AA21">
         <v>191.05240000000001</v>
       </c>
-      <c r="AB20">
+      <c r="AB21">
         <v>0.98740000000000006</v>
       </c>
-      <c r="AC20">
+      <c r="AC21">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="AD20">
+      <c r="AD21">
         <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22">
-        <v>2755.0721051692899</v>
-      </c>
-      <c r="F22">
-        <v>2.2871946955809099E-2</v>
-      </c>
-      <c r="G22">
-        <v>8.3017598388422792E-3</v>
-      </c>
-      <c r="H22">
-        <v>21.068665816537202</v>
-      </c>
-      <c r="I22">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="J22">
-        <v>11.7459940910339</v>
-      </c>
-      <c r="K22">
-        <v>1.7904212128358198E-2</v>
-      </c>
-      <c r="L22">
-        <v>8.1021177687588805E-2</v>
-      </c>
-      <c r="M22">
-        <v>8.9611524284356602E-3</v>
-      </c>
-      <c r="N22">
-        <v>0.107886542244382</v>
-      </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
-      </c>
-      <c r="R22" t="s">
-        <v>34</v>
-      </c>
-      <c r="S22">
-        <v>3.27E-2</v>
-      </c>
-      <c r="T22">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U22">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="V22">
-        <v>0.14180000000000001</v>
-      </c>
-      <c r="W22">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="X22">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="Y22">
-        <v>0.94240000000000002</v>
-      </c>
-      <c r="Z22">
-        <v>0.23769999999999999</v>
-      </c>
-      <c r="AA22">
-        <v>118.9479</v>
-      </c>
-      <c r="AB22">
-        <v>0.93140000000000001</v>
-      </c>
-      <c r="AC22">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="AD22">
-        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="2:30" ht="26" customHeight="1" x14ac:dyDescent="0.2">
